--- a/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
+++ b/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E27B2F6D-4304-4CC2-B96D-F6EF213BAB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692EF067-6509-42CE-A926-F52DF961DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatligaForvaltningsmyndigheter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="670">
   <si>
     <t>Namn</t>
   </si>
@@ -1880,12 +1880,162 @@
   </si>
   <si>
     <t>https://isf.se/</t>
+  </si>
+  <si>
+    <t>https://isp.se/</t>
+  </si>
+  <si>
+    <t>https://www.ivo.se/</t>
+  </si>
+  <si>
+    <t>https://www.ifau.se/</t>
+  </si>
+  <si>
+    <t>https://www.irf.se/</t>
+  </si>
+  <si>
+    <t>https://www.isof.se/</t>
+  </si>
+  <si>
+    <t>https://www.imy.se/</t>
+  </si>
+  <si>
+    <t>https://www.jamstalldhetsmyndigheten.se/</t>
+  </si>
+  <si>
+    <t>https://www.jk.se/</t>
+  </si>
+  <si>
+    <t>https://www.kau.se/</t>
+  </si>
+  <si>
+    <t>http://www.karnavfallsfonden.se/</t>
+  </si>
+  <si>
+    <t>https://ki.se/</t>
+  </si>
+  <si>
+    <t>https://www.kemi.se/</t>
+  </si>
+  <si>
+    <t>https://www.klimatpolitiskaradet.se/</t>
+  </si>
+  <si>
+    <t>https://www.kommerskollegium.se/</t>
+  </si>
+  <si>
+    <t>https://www.konj.se/</t>
+  </si>
+  <si>
+    <t>https://www.konkurrensverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.konstfack.se/</t>
+  </si>
+  <si>
+    <t>https://www.konstnarsnamnden.se/</t>
+  </si>
+  <si>
+    <t>https://www.konsumentverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.kriminalvarden.se/</t>
+  </si>
+  <si>
+    <t>https://www.kronofogden.se/</t>
+  </si>
+  <si>
+    <t>https://www.kb.se/</t>
+  </si>
+  <si>
+    <t>https://kkh.se</t>
+  </si>
+  <si>
+    <t>https://www.kmh.se/</t>
+  </si>
+  <si>
+    <t>https://www.kth.se/</t>
+  </si>
+  <si>
+    <t>https://www.kustbevakningen.se/</t>
+  </si>
+  <si>
+    <t>https://www.lagradet.se/</t>
+  </si>
+  <si>
+    <t>https://www.lakemedelsverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/</t>
+  </si>
+  <si>
+    <t>https://www.lantmateriet.se/</t>
+  </si>
+  <si>
+    <t>https://liu.se/</t>
+  </si>
+  <si>
+    <t>https://lnu.se/</t>
+  </si>
+  <si>
+    <t>https://www.livsmedelsverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.karnkraftskommunerna.se/</t>
+  </si>
+  <si>
+    <t>http://www.osthammar.se/</t>
+  </si>
+  <si>
+    <t>https://www.oskarshamn.se/</t>
+  </si>
+  <si>
+    <t>https://www.varberg.se/</t>
+  </si>
+  <si>
+    <t>https://nykoping.se/</t>
+  </si>
+  <si>
+    <t>https://www.ltu.se/</t>
+  </si>
+  <si>
+    <t>https://www.lu.se/</t>
+  </si>
+  <si>
+    <t>https://www.mdh.se/</t>
+  </si>
+  <si>
+    <t>https://mau.se/</t>
+  </si>
+  <si>
+    <t>https://www.mi.se/</t>
+  </si>
+  <si>
+    <t>https://www.migrationsverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.miun.se/</t>
+  </si>
+  <si>
+    <t>https://www.modernamuseet.se/</t>
+  </si>
+  <si>
+    <t>https://mynak.se/</t>
+  </si>
+  <si>
+    <t>https://www.mfd.se/</t>
+  </si>
+  <si>
+    <t>https://www.digg.se/</t>
+  </si>
+  <si>
+    <t>https://mfof.se/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2730,11 +2880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,8 +3787,11 @@
       <c r="C64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -3648,8 +3801,11 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -3659,8 +3815,11 @@
       <c r="C66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -3670,8 +3829,11 @@
       <c r="C67" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -3681,8 +3843,11 @@
       <c r="C68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -3692,8 +3857,11 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -3703,8 +3871,11 @@
       <c r="C70" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -3714,8 +3885,11 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -3725,8 +3899,11 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3736,8 +3913,11 @@
       <c r="C73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -3758,8 +3941,11 @@
       <c r="C75" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -3769,8 +3955,11 @@
       <c r="C76" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -3780,8 +3969,11 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>180</v>
       </c>
@@ -3791,8 +3983,11 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -3802,8 +3997,11 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>184</v>
       </c>
@@ -3813,8 +4011,11 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -3824,8 +4025,11 @@
       <c r="C81" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -3835,8 +4039,11 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -3846,8 +4053,11 @@
       <c r="C83" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -3857,8 +4067,11 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -3868,8 +4081,11 @@
       <c r="C85" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>197</v>
       </c>
@@ -3879,8 +4095,11 @@
       <c r="C86" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>199</v>
       </c>
@@ -3890,8 +4109,11 @@
       <c r="C87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>201</v>
       </c>
@@ -3901,8 +4123,11 @@
       <c r="C88" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -3912,8 +4137,11 @@
       <c r="C89" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -3923,8 +4151,11 @@
       <c r="C90" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -3934,8 +4165,11 @@
       <c r="C91" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -3945,8 +4179,11 @@
       <c r="C92" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>211</v>
       </c>
@@ -3956,8 +4193,11 @@
       <c r="C93" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -3967,8 +4207,11 @@
       <c r="C94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>215</v>
       </c>
@@ -3978,8 +4221,11 @@
       <c r="C95" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -3989,8 +4235,11 @@
       <c r="C96" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -4000,8 +4249,11 @@
       <c r="C97" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -4011,8 +4263,11 @@
       <c r="C98" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -4022,8 +4277,11 @@
       <c r="C99" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -4033,8 +4291,11 @@
       <c r="C100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>229</v>
       </c>
@@ -4044,8 +4305,11 @@
       <c r="C101" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -4055,8 +4319,11 @@
       <c r="C102" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -4066,8 +4333,11 @@
       <c r="C103" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -4077,8 +4347,11 @@
       <c r="C104" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>240</v>
       </c>
@@ -4088,8 +4361,11 @@
       <c r="C105" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -4099,8 +4375,11 @@
       <c r="C106" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>246</v>
       </c>
@@ -4110,8 +4389,11 @@
       <c r="C107" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -4121,8 +4403,11 @@
       <c r="C108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>251</v>
       </c>
@@ -4132,8 +4417,11 @@
       <c r="C109" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>253</v>
       </c>
@@ -4143,8 +4431,11 @@
       <c r="C110" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -4154,8 +4445,11 @@
       <c r="C111" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -4165,8 +4459,11 @@
       <c r="C112" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>260</v>
       </c>
@@ -4176,8 +4473,11 @@
       <c r="C113" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>263</v>
       </c>
@@ -4187,8 +4487,11 @@
       <c r="C114" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>265</v>
       </c>
@@ -4198,8 +4501,11 @@
       <c r="C115" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -4209,8 +4515,11 @@
       <c r="C116" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>269</v>
       </c>
@@ -4220,8 +4529,11 @@
       <c r="C117" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -4231,8 +4543,11 @@
       <c r="C118" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>273</v>
       </c>
@@ -4242,8 +4557,11 @@
       <c r="C119" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -4253,8 +4571,11 @@
       <c r="C120" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>279</v>
       </c>
@@ -4264,8 +4585,11 @@
       <c r="C121" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -4275,8 +4599,11 @@
       <c r="C122" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>285</v>
       </c>
@@ -4286,8 +4613,11 @@
       <c r="C123" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>287</v>
       </c>
@@ -4297,8 +4627,11 @@
       <c r="C124" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -4308,8 +4641,11 @@
       <c r="C125" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -4319,8 +4655,11 @@
       <c r="C126" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>294</v>
       </c>
@@ -4330,8 +4669,11 @@
       <c r="C127" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -4341,8 +4683,11 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -4352,8 +4697,11 @@
       <c r="C129" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -4363,8 +4711,11 @@
       <c r="C130" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>302</v>
       </c>
@@ -4374,8 +4725,11 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>304</v>
       </c>
@@ -4385,8 +4739,11 @@
       <c r="C132" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -4396,8 +4753,11 @@
       <c r="C133" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -4407,8 +4767,11 @@
       <c r="C134" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>310</v>
       </c>
@@ -4418,8 +4781,11 @@
       <c r="C135" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -4430,7 +4796,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>315</v>
       </c>
@@ -4441,7 +4807,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>318</v>
       </c>
@@ -4452,7 +4818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>320</v>
       </c>
@@ -4463,7 +4829,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>323</v>
       </c>
@@ -4474,7 +4840,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>325</v>
       </c>
@@ -4485,7 +4851,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>327</v>
       </c>
@@ -4496,7 +4862,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>329</v>
       </c>
@@ -4507,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>331</v>
       </c>
@@ -5686,10 +6052,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="D22" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D88" r:id="rId5" xr:uid="{230E6F8C-5613-4F95-843D-6F776D442A84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
+++ b/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LST\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692EF067-6509-42CE-A926-F52DF961DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C0741-1731-45E6-84CB-5718ECDF0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="780">
   <si>
     <t>Namn</t>
   </si>
@@ -976,9 +976,6 @@
     <t>Johanneshov, Stockholm</t>
   </si>
   <si>
-    <t>Myndigheten för samhällsskydd och beredskap (msb)</t>
-  </si>
-  <si>
     <t>202100-5984</t>
   </si>
   <si>
@@ -1150,9 +1147,6 @@
     <t>202100-4359</t>
   </si>
   <si>
-    <t>Rättshjälpnämnden</t>
-  </si>
-  <si>
     <t>202100-6008</t>
   </si>
   <si>
@@ -1327,9 +1321,6 @@
     <t>202100-3427</t>
   </si>
   <si>
-    <t>Statens energimyndighet</t>
-  </si>
-  <si>
     <t>202100-5000</t>
   </si>
   <si>
@@ -1363,9 +1354,6 @@
     <t>202100-4953</t>
   </si>
   <si>
-    <t>Statens inspektion för försvarsunderrättelseverksamheten (siun)</t>
-  </si>
-  <si>
     <t>202100-6214</t>
   </si>
   <si>
@@ -1378,9 +1366,6 @@
     <t>202100-4508</t>
   </si>
   <si>
-    <t>Statens jordbruksverk</t>
-  </si>
-  <si>
     <t>202100-4151</t>
   </si>
   <si>
@@ -1390,9 +1375,6 @@
     <t>202100-1033</t>
   </si>
   <si>
-    <t>Statens kulturråd</t>
-  </si>
-  <si>
     <t>202100-1280</t>
   </si>
   <si>
@@ -1408,9 +1390,6 @@
     <t>202100-6396</t>
   </si>
   <si>
-    <t>Statens museer för världskultur</t>
-  </si>
-  <si>
     <t>202100-5075</t>
   </si>
   <si>
@@ -1444,15 +1423,9 @@
     <t>202100-5828</t>
   </si>
   <si>
-    <t>Statens skolinspektion</t>
-  </si>
-  <si>
     <t>202100-6065</t>
   </si>
   <si>
-    <t>Statens skolverk</t>
-  </si>
-  <si>
     <t>202100-4185</t>
   </si>
   <si>
@@ -1585,18 +1558,12 @@
     <t>202100-6149</t>
   </si>
   <si>
-    <t>Totalförsvarets forskningsinstitut, foi</t>
-  </si>
-  <si>
     <t>202100-5182</t>
   </si>
   <si>
     <t>Kista, Stockholm</t>
   </si>
   <si>
-    <t>Totalförsvarets plikt- och prövningsverk</t>
-  </si>
-  <si>
     <t>202100-4771</t>
   </si>
   <si>
@@ -2030,6 +1997,369 @@
   </si>
   <si>
     <t>https://mfof.se/</t>
+  </si>
+  <si>
+    <t>https://kulturanalys.se/</t>
+  </si>
+  <si>
+    <t>https://www.mprt.se/</t>
+  </si>
+  <si>
+    <t>https://www.msb.se/</t>
+  </si>
+  <si>
+    <t>Myndigheten för samhällsskydd och beredskap</t>
+  </si>
+  <si>
+    <t>https://www.myndighetensst.se/</t>
+  </si>
+  <si>
+    <t>https://www.mtm.se/</t>
+  </si>
+  <si>
+    <t>https://www.tillvaxtanalys.se/</t>
+  </si>
+  <si>
+    <t>https://www.mucf.se/</t>
+  </si>
+  <si>
+    <t>https://www.vardanalys.se/</t>
+  </si>
+  <si>
+    <t>https://www.myh.se/</t>
+  </si>
+  <si>
+    <t>https://nfh.se/</t>
+  </si>
+  <si>
+    <t>https://www.oredlighetsprovning.se/</t>
+  </si>
+  <si>
+    <t>https://namndenmotdiskriminering.se/</t>
+  </si>
+  <si>
+    <t>https://www.nationalmuseum.se/</t>
+  </si>
+  <si>
+    <t>https://www.nrm.se/</t>
+  </si>
+  <si>
+    <t>https://www.naturvardsverket.se/</t>
+  </si>
+  <si>
+    <t>https://nai.uu.se/</t>
+  </si>
+  <si>
+    <t>https://www.domstol.se/notarienamnden/</t>
+  </si>
+  <si>
+    <t>https://www.regeringen.se/myndigheter-med-flera/oljekrisnamnden/</t>
+  </si>
+  <si>
+    <t>https://www.oru.se/</t>
+  </si>
+  <si>
+    <t>https://www.onep.se/</t>
+  </si>
+  <si>
+    <t>https://www.onh.se/</t>
+  </si>
+  <si>
+    <t>https://www.domstol.se/overklagandenamnden-for-namndemannauppdrag/</t>
+  </si>
+  <si>
+    <t>https://oks.se/</t>
+  </si>
+  <si>
+    <t>https://www.prv.se/</t>
+  </si>
+  <si>
+    <t>https://bolagsverket.se/om/oss/fler/patentombud</t>
+  </si>
+  <si>
+    <t>https://www.pensionsmyndigheten.se/</t>
+  </si>
+  <si>
+    <t>https://www.polar.se/</t>
+  </si>
+  <si>
+    <t>https://polisen.se/</t>
+  </si>
+  <si>
+    <t>https://www.pts.se/</t>
+  </si>
+  <si>
+    <t>https://www.domstol.se/rattshjalpsnamnden/</t>
+  </si>
+  <si>
+    <t>Rättshjälpsnämnden</t>
+  </si>
+  <si>
+    <t>https://www.domstol.se/rattshjalpsmyndigheten/</t>
+  </si>
+  <si>
+    <t>https://www.rmv.se/</t>
+  </si>
+  <si>
+    <t>https://www.revisorsinspektionen.se/</t>
+  </si>
+  <si>
+    <t>https://www.raa.se/</t>
+  </si>
+  <si>
+    <t>https://riksarkivet.se/</t>
+  </si>
+  <si>
+    <t>https://www.riksgalden.se/</t>
+  </si>
+  <si>
+    <t>https://www.rymdstyrelsen.se/</t>
+  </si>
+  <si>
+    <t>https://www.sakint.se/</t>
+  </si>
+  <si>
+    <t>https://www.sakerhetspolisen.se/</t>
+  </si>
+  <si>
+    <t>https://sameskolstyrelsen.se/</t>
+  </si>
+  <si>
+    <t>https://www.sametinget.se/</t>
+  </si>
+  <si>
+    <t>https://www.sida.se/</t>
+  </si>
+  <si>
+    <t>https://skatterattsnamnden.se/</t>
+  </si>
+  <si>
+    <t>https://www.skatteverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.regeringen.se/myndigheter-med-flera/skiljenamnden-i-vissa-trygghetsfragor/</t>
+  </si>
+  <si>
+    <t>https://www.skogsstyrelsen.se/</t>
+  </si>
+  <si>
+    <t>https://www.skolfi.se/</t>
+  </si>
+  <si>
+    <t>https://www.overklagandenamnden.se/</t>
+  </si>
+  <si>
+    <t>https://www.sh.se/</t>
+  </si>
+  <si>
+    <t>https://www.spsm.se/</t>
+  </si>
+  <si>
+    <t>https://www.spelinspektionen.se/</t>
+  </si>
+  <si>
+    <t>http://statensansvarsnamnd.se/</t>
+  </si>
+  <si>
+    <t>https://www.sbu.se/</t>
+  </si>
+  <si>
+    <t>https://www.regeringen.se/myndigheter-med-flera/statens-centrum-for-arkitektur-och-design/</t>
+  </si>
+  <si>
+    <t>https://www.energimyndigheten.se/</t>
+  </si>
+  <si>
+    <t>https://www.skolinspektionen.se/</t>
+  </si>
+  <si>
+    <t>Energimyndigheten</t>
+  </si>
+  <si>
+    <t>https://www.sfv.se/</t>
+  </si>
+  <si>
+    <t>https://www.sfhm.se/</t>
+  </si>
+  <si>
+    <t>https://www.sgi.se/</t>
+  </si>
+  <si>
+    <t>https://www.havkom.se/</t>
+  </si>
+  <si>
+    <t>https://shm.se/</t>
+  </si>
+  <si>
+    <t>http://www.siun.se/</t>
+  </si>
+  <si>
+    <t>Statens inspektion för försvarsunderrättelseverksamheten</t>
+  </si>
+  <si>
+    <t>https://www.stat-inst.se/</t>
+  </si>
+  <si>
+    <t>https://jordbruksverket.se/</t>
+  </si>
+  <si>
+    <t>Jordbruksverket</t>
+  </si>
+  <si>
+    <t>https://statenskonstrad.se/</t>
+  </si>
+  <si>
+    <t>https://www.kulturradet.se/</t>
+  </si>
+  <si>
+    <t>Kulturrådet</t>
+  </si>
+  <si>
+    <t>https://www.smtm.se/</t>
+  </si>
+  <si>
+    <t>https://www.statensmedierad.se/</t>
+  </si>
+  <si>
+    <t>https://www.varldskulturmuseerna.se/</t>
+  </si>
+  <si>
+    <t>Världskulturmuseerna (Statens museer för världskultur)</t>
+  </si>
+  <si>
+    <t>https://musikverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.regeringen.se/myndigheter-med-flera/statens-namnd-for-arbetstagares-uppfinningar2/</t>
+  </si>
+  <si>
+    <t>https://www.kammarkollegiet.se/om-oss/organisation/stod-till-andra-myndigheter/statens-overklagandenamnd</t>
+  </si>
+  <si>
+    <t>https://www.statenssc.se/</t>
+  </si>
+  <si>
+    <t>https://www.kammarkollegiet.se/om-oss/organisation/stod-till-andra-myndigheter/statens-skaderegleringsnamnd</t>
+  </si>
+  <si>
+    <t>skolinspektionen (Statens skolinspektion)</t>
+  </si>
+  <si>
+    <t>https://www.skolverket.se/</t>
+  </si>
+  <si>
+    <t>Skolverket (Statens skolverk)</t>
+  </si>
+  <si>
+    <t>https://www.regeringen.se/myndigheter-med-flera/statens-tjanstepensions--och-grupplivnamnd/</t>
+  </si>
+  <si>
+    <t>https://www.spv.se/</t>
+  </si>
+  <si>
+    <t>https://www.vti.se/</t>
+  </si>
+  <si>
+    <t>https://www.sva.se/</t>
+  </si>
+  <si>
+    <t>https://www.scb.se/</t>
+  </si>
+  <si>
+    <t>https://www.statskontoret.se/</t>
+  </si>
+  <si>
+    <t>https://www.uniarts.se/</t>
+  </si>
+  <si>
+    <t>https://www.su.se/</t>
+  </si>
+  <si>
+    <t>https://www.stralsakerhetsmyndigheten.se/</t>
+  </si>
+  <si>
+    <t>https://www.swedac.se/</t>
+  </si>
+  <si>
+    <t>https://www.sametinget.se/samefonden</t>
+  </si>
+  <si>
+    <t>https://www.esf.se/</t>
+  </si>
+  <si>
+    <t>https://www.svenskafaokommitten.se/</t>
+  </si>
+  <si>
+    <t>https://si.se/</t>
+  </si>
+  <si>
+    <t>https://www.sieps.se/</t>
+  </si>
+  <si>
+    <t>https://www.svff.se/</t>
+  </si>
+  <si>
+    <t>https://www.sgu.se/</t>
+  </si>
+  <si>
+    <t>https://www.slu.se/</t>
+  </si>
+  <si>
+    <t>https://www.smhi.se/</t>
+  </si>
+  <si>
+    <t>https://www.tlv.se/</t>
+  </si>
+  <si>
+    <t>https://tillvaxtverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.foi.se/</t>
+  </si>
+  <si>
+    <t>Totalförsvarets forskningsinstitut</t>
+  </si>
+  <si>
+    <t>https://pliktverket.se/</t>
+  </si>
+  <si>
+    <t>Pliktverket (Totalförsvarets plikt- och prövningsverk)</t>
+  </si>
+  <si>
+    <t>https://www.trafa.se/</t>
+  </si>
+  <si>
+    <t>https://www.trafikverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.transportstyrelsen.se/</t>
+  </si>
+  <si>
+    <t>https://www.tullverket.se/</t>
+  </si>
+  <si>
+    <t>https://www.umu.se/</t>
+  </si>
+  <si>
+    <t>https://www.uhr.se/</t>
+  </si>
+  <si>
+    <t>https://www.uka.se/</t>
+  </si>
+  <si>
+    <t>https://www.upphandlingsmyndigheten.se/</t>
+  </si>
+  <si>
+    <t>https://www.uu.se/</t>
+  </si>
+  <si>
+    <t>https://www.val.se/</t>
+  </si>
+  <si>
+    <t>https://www.vinnova.se/</t>
+  </si>
+  <si>
+    <t>https://www.vr.se/</t>
   </si>
 </sst>
 </file>
@@ -2883,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2906,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,7 +3278,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,7 +3306,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,12 +3320,12 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3004,12 +3334,12 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3018,7 +3348,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,7 +3376,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,7 +3404,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,7 +3418,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,7 +3446,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,7 +3460,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,7 +3474,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3158,7 +3488,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,7 +3502,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3186,7 +3516,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,7 +3530,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,7 +3544,7 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3228,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,7 +3572,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,7 +3586,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3600,7 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3614,7 @@
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3312,7 +3642,7 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,7 +3670,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3354,7 +3684,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3698,7 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,7 +3712,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3396,7 +3726,7 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3424,7 +3754,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3438,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,7 +3782,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3466,7 +3796,7 @@
         <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3480,7 +3810,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,7 +3824,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3508,7 +3838,7 @@
         <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3522,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3536,7 +3866,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3550,7 +3880,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3564,12 +3894,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -3578,7 +3908,7 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3592,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3606,7 +3936,7 @@
         <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,7 +3950,7 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,7 +3964,7 @@
         <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3648,7 +3978,7 @@
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3662,7 +3992,7 @@
         <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3676,7 +4006,7 @@
         <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,7 +4020,7 @@
         <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,7 +4034,7 @@
         <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3718,7 +4048,7 @@
         <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3732,12 +4062,12 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -3746,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3760,7 +4090,7 @@
         <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,7 +4118,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3802,7 +4132,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3816,7 +4146,7 @@
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3830,7 +4160,7 @@
         <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3844,7 +4174,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3858,7 +4188,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3872,7 +4202,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3886,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,7 +4230,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3914,7 +4244,7 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3928,7 +4258,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,7 +4272,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3956,7 +4286,7 @@
         <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3970,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3998,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4012,7 +4342,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4026,7 +4356,7 @@
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,7 +4370,7 @@
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,7 +4384,7 @@
         <v>71</v>
       </c>
       <c r="D83" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4068,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4082,7 +4412,7 @@
         <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,7 +4426,7 @@
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,7 +4440,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4138,7 +4468,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4152,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4166,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4180,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4194,7 +4524,7 @@
         <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4208,7 +4538,7 @@
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,7 +4552,7 @@
         <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4236,7 +4566,7 @@
         <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4250,7 +4580,7 @@
         <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4264,7 +4594,7 @@
         <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4278,7 +4608,7 @@
         <v>226</v>
       </c>
       <c r="D99" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4292,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4306,7 +4636,7 @@
         <v>53</v>
       </c>
       <c r="D101" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4320,7 +4650,7 @@
         <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4334,7 +4664,7 @@
         <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4348,7 +4678,7 @@
         <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4362,7 +4692,7 @@
         <v>242</v>
       </c>
       <c r="D105" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4376,7 +4706,7 @@
         <v>245</v>
       </c>
       <c r="D106" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4390,7 +4720,7 @@
         <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4404,7 +4734,7 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4418,7 +4748,7 @@
         <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,7 +4762,7 @@
         <v>71</v>
       </c>
       <c r="D110" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4446,7 +4776,7 @@
         <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,7 +4790,7 @@
         <v>259</v>
       </c>
       <c r="D112" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4474,7 +4804,7 @@
         <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4488,7 +4818,7 @@
         <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4502,7 +4832,7 @@
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,7 +4846,7 @@
         <v>242</v>
       </c>
       <c r="D116" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4530,7 +4860,7 @@
         <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4544,7 +4874,7 @@
         <v>66</v>
       </c>
       <c r="D118" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4558,7 +4888,7 @@
         <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4572,7 +4902,7 @@
         <v>278</v>
       </c>
       <c r="D120" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4586,7 +4916,7 @@
         <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4600,7 +4930,7 @@
         <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,7 +4944,7 @@
         <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4628,7 +4958,7 @@
         <v>236</v>
       </c>
       <c r="D124" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4642,7 +4972,7 @@
         <v>291</v>
       </c>
       <c r="D125" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,7 +4986,7 @@
         <v>262</v>
       </c>
       <c r="D126" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,7 +5000,7 @@
         <v>245</v>
       </c>
       <c r="D127" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,7 +5014,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4698,7 +5028,7 @@
         <v>196</v>
       </c>
       <c r="D129" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4712,7 +5042,7 @@
         <v>30</v>
       </c>
       <c r="D130" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,7 +5056,7 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,7 +5070,7 @@
         <v>128</v>
       </c>
       <c r="D132" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,7 +5084,7 @@
         <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4768,7 +5098,7 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4782,7 +5112,7 @@
         <v>312</v>
       </c>
       <c r="D135" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,6 +5125,9 @@
       <c r="C136" t="s">
         <v>109</v>
       </c>
+      <c r="D136" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -4806,1248 +5139,1590 @@
       <c r="C137" t="s">
         <v>317</v>
       </c>
+      <c r="D137" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>662</v>
+      </c>
+      <c r="B138" t="s">
         <v>318</v>
-      </c>
-      <c r="B138" t="s">
-        <v>319</v>
       </c>
       <c r="C138" t="s">
         <v>71</v>
       </c>
+      <c r="D138" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>319</v>
+      </c>
+      <c r="B139" t="s">
         <v>320</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>321</v>
       </c>
-      <c r="C139" t="s">
-        <v>322</v>
+      <c r="D139" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>322</v>
+      </c>
+      <c r="B140" t="s">
         <v>323</v>
-      </c>
-      <c r="B140" t="s">
-        <v>324</v>
       </c>
       <c r="C140" t="s">
         <v>245</v>
       </c>
+      <c r="D140" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>324</v>
+      </c>
+      <c r="B141" t="s">
         <v>325</v>
-      </c>
-      <c r="B141" t="s">
-        <v>326</v>
       </c>
       <c r="C141" t="s">
         <v>226</v>
       </c>
+      <c r="D141" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>326</v>
+      </c>
+      <c r="B142" t="s">
         <v>327</v>
-      </c>
-      <c r="B142" t="s">
-        <v>328</v>
       </c>
       <c r="C142" t="s">
         <v>233</v>
       </c>
+      <c r="D142" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>328</v>
+      </c>
+      <c r="B143" t="s">
         <v>329</v>
       </c>
-      <c r="B143" t="s">
-        <v>330</v>
-      </c>
       <c r="C143" t="s">
         <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>330</v>
+      </c>
+      <c r="B144" t="s">
         <v>331</v>
-      </c>
-      <c r="B144" t="s">
-        <v>332</v>
       </c>
       <c r="C144" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>332</v>
+      </c>
+      <c r="B145" t="s">
         <v>333</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>334</v>
       </c>
-      <c r="C145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>335</v>
-      </c>
-      <c r="B146" t="s">
-        <v>336</v>
       </c>
       <c r="C146" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" t="s">
         <v>337</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>338</v>
       </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
         <v>339</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>340</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
         <v>341</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>342</v>
       </c>
-      <c r="C149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
         <v>343</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>344</v>
       </c>
-      <c r="C150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
         <v>345</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>346</v>
       </c>
-      <c r="C151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>347</v>
-      </c>
-      <c r="B152" t="s">
-        <v>348</v>
       </c>
       <c r="C152" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>348</v>
+      </c>
+      <c r="B153" t="s">
         <v>349</v>
-      </c>
-      <c r="B153" t="s">
-        <v>350</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>350</v>
+      </c>
+      <c r="B154" t="s">
         <v>351</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>352</v>
       </c>
-      <c r="C154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>353</v>
-      </c>
-      <c r="B155" t="s">
-        <v>354</v>
       </c>
       <c r="C155" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>354</v>
+      </c>
+      <c r="B156" t="s">
         <v>355</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>356</v>
       </c>
-      <c r="C156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
         <v>357</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>358</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
         <v>360</v>
-      </c>
-      <c r="B158" t="s">
-        <v>361</v>
       </c>
       <c r="C158" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>361</v>
+      </c>
+      <c r="B159" t="s">
         <v>362</v>
-      </c>
-      <c r="B159" t="s">
-        <v>363</v>
       </c>
       <c r="C159" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>363</v>
+      </c>
+      <c r="B160" t="s">
         <v>364</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>365</v>
       </c>
-      <c r="C160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
         <v>366</v>
-      </c>
-      <c r="B161" t="s">
-        <v>367</v>
       </c>
       <c r="C161" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>367</v>
+      </c>
+      <c r="B162" t="s">
         <v>368</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>369</v>
       </c>
-      <c r="C162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
         <v>370</v>
-      </c>
-      <c r="B163" t="s">
-        <v>371</v>
       </c>
       <c r="C163" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" t="s">
         <v>372</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>373</v>
       </c>
-      <c r="C164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
         <v>374</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>690</v>
+      </c>
+      <c r="B166" t="s">
         <v>375</v>
-      </c>
-      <c r="C165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>376</v>
-      </c>
-      <c r="B166" t="s">
-        <v>377</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B167" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C167" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>378</v>
+      </c>
+      <c r="B168" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>380</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>381</v>
       </c>
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>382</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>383</v>
       </c>
-      <c r="C169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>384</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>385</v>
       </c>
-      <c r="C170" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>386</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>387</v>
       </c>
-      <c r="C171" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
         <v>388</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>389</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>391</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>392</v>
       </c>
-      <c r="C173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>393</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>394</v>
-      </c>
-      <c r="C174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>395</v>
-      </c>
-      <c r="B175" t="s">
-        <v>396</v>
       </c>
       <c r="C175" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>395</v>
+      </c>
+      <c r="B176" t="s">
+        <v>396</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>397</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>398</v>
-      </c>
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>399</v>
-      </c>
-      <c r="B177" t="s">
-        <v>400</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>399</v>
+      </c>
+      <c r="B178" t="s">
+        <v>400</v>
+      </c>
+      <c r="C178" t="s">
         <v>401</v>
       </c>
-      <c r="B178" t="s">
+      <c r="D178" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>402</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>404</v>
-      </c>
-      <c r="B179" t="s">
-        <v>405</v>
       </c>
       <c r="C179" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>404</v>
+      </c>
+      <c r="B180" t="s">
+        <v>405</v>
+      </c>
+      <c r="C180" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>406</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>407</v>
       </c>
-      <c r="C180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>408</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>409</v>
-      </c>
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>410</v>
-      </c>
-      <c r="B182" t="s">
-        <v>411</v>
       </c>
       <c r="C182" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>410</v>
+      </c>
+      <c r="B183" t="s">
+        <v>411</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>412</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>413</v>
-      </c>
-      <c r="C183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>414</v>
-      </c>
-      <c r="B184" t="s">
-        <v>415</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B185" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C185" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>416</v>
+      </c>
+      <c r="B186" t="s">
+        <v>417</v>
+      </c>
+      <c r="C186" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>418</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>419</v>
       </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>420</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>421</v>
-      </c>
-      <c r="C187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>422</v>
-      </c>
-      <c r="B188" t="s">
-        <v>423</v>
       </c>
       <c r="C188" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B189" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C189" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>424</v>
+      </c>
+      <c r="B190" t="s">
+        <v>425</v>
+      </c>
+      <c r="C190" t="s">
         <v>426</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>427</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B191" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C191" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>429</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>430</v>
       </c>
-      <c r="C191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>431</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>432</v>
       </c>
-      <c r="C192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>717</v>
+      </c>
+      <c r="B194" t="s">
         <v>433</v>
-      </c>
-      <c r="B193" t="s">
-        <v>434</v>
-      </c>
-      <c r="C193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>435</v>
-      </c>
-      <c r="B194" t="s">
-        <v>436</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>434</v>
+      </c>
+      <c r="B195" t="s">
+        <v>435</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>436</v>
+      </c>
+      <c r="B196" t="s">
         <v>437</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C196" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>438</v>
       </c>
-      <c r="C195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="B197" t="s">
         <v>439</v>
-      </c>
-      <c r="B196" t="s">
-        <v>440</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>441</v>
-      </c>
-      <c r="B197" t="s">
-        <v>442</v>
       </c>
       <c r="C197" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>440</v>
+      </c>
+      <c r="B198" t="s">
+        <v>441</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>442</v>
+      </c>
+      <c r="B199" t="s">
         <v>443</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>724</v>
+      </c>
+      <c r="B200" t="s">
         <v>444</v>
       </c>
-      <c r="C198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C200" t="s">
         <v>445</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D200" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>446</v>
       </c>
-      <c r="C199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="B201" t="s">
         <v>447</v>
-      </c>
-      <c r="B200" t="s">
-        <v>448</v>
-      </c>
-      <c r="C200" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>450</v>
-      </c>
-      <c r="B201" t="s">
-        <v>451</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>452</v>
+        <v>727</v>
       </c>
       <c r="B202" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B203" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>456</v>
+        <v>730</v>
       </c>
       <c r="B204" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B205" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C205" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B206" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>462</v>
+        <v>734</v>
       </c>
       <c r="B207" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C207" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" t="s">
+        <v>458</v>
+      </c>
+      <c r="C208" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>459</v>
+      </c>
+      <c r="B209" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>461</v>
+      </c>
+      <c r="B210" t="s">
+        <v>462</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>463</v>
+      </c>
+      <c r="B211" t="s">
         <v>464</v>
-      </c>
-      <c r="B208" t="s">
-        <v>465</v>
-      </c>
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>466</v>
-      </c>
-      <c r="B209" t="s">
-        <v>467</v>
-      </c>
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>468</v>
-      </c>
-      <c r="B210" t="s">
-        <v>469</v>
-      </c>
-      <c r="C210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>470</v>
-      </c>
-      <c r="B211" t="s">
-        <v>471</v>
       </c>
       <c r="C211" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B212" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>474</v>
+        <v>740</v>
       </c>
       <c r="B213" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>476</v>
+        <v>742</v>
       </c>
       <c r="B214" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C214" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B215" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C215" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B216" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C216" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B217" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C217" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B218" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C218" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B219" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C219" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>479</v>
+      </c>
+      <c r="B220" t="s">
+        <v>480</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>481</v>
+      </c>
+      <c r="B221" t="s">
+        <v>482</v>
+      </c>
+      <c r="C221" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>483</v>
+      </c>
+      <c r="B222" t="s">
+        <v>484</v>
+      </c>
+      <c r="C222" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>485</v>
+      </c>
+      <c r="B223" t="s">
+        <v>486</v>
+      </c>
+      <c r="C223" t="s">
+        <v>487</v>
+      </c>
+      <c r="D223" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>488</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B224" t="s">
         <v>489</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>490</v>
-      </c>
-      <c r="B221" t="s">
-        <v>491</v>
-      </c>
-      <c r="C221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>492</v>
-      </c>
-      <c r="B222" t="s">
-        <v>493</v>
-      </c>
-      <c r="C222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>494</v>
-      </c>
-      <c r="B223" t="s">
-        <v>495</v>
-      </c>
-      <c r="C223" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>497</v>
-      </c>
-      <c r="B224" t="s">
-        <v>498</v>
       </c>
       <c r="C224" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B225" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C225" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B226" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C226" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>494</v>
+      </c>
+      <c r="B227" t="s">
+        <v>495</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>496</v>
+      </c>
+      <c r="B228" t="s">
+        <v>497</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>498</v>
+      </c>
+      <c r="B229" t="s">
+        <v>499</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>500</v>
+      </c>
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>502</v>
+      </c>
+      <c r="B231" t="s">
         <v>503</v>
-      </c>
-      <c r="B227" t="s">
-        <v>504</v>
-      </c>
-      <c r="C227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>505</v>
-      </c>
-      <c r="B228" t="s">
-        <v>506</v>
-      </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>507</v>
-      </c>
-      <c r="B229" t="s">
-        <v>508</v>
-      </c>
-      <c r="C229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>509</v>
-      </c>
-      <c r="B230" t="s">
-        <v>510</v>
-      </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>511</v>
-      </c>
-      <c r="B231" t="s">
-        <v>512</v>
       </c>
       <c r="C231" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B232" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C232" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B233" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C233" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B234" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B235" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>521</v>
+        <v>765</v>
       </c>
       <c r="B236" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C236" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="D236" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>524</v>
+        <v>767</v>
       </c>
       <c r="B237" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C237" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B238" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B239" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C239" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="D239" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C240" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B241" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B242" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C242" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B243" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B244" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B245" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C245" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B246" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C246" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B247" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B248" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="D248" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B249" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B250" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
+      </c>
+      <c r="D250" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -6057,7 +6732,12 @@
     <hyperlink ref="D22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D88" r:id="rId5" xr:uid="{230E6F8C-5613-4F95-843D-6F776D442A84}"/>
+    <hyperlink ref="D194" r:id="rId6" xr:uid="{FE108E75-36A5-4B84-A668-4E33B25ED0B8}"/>
+    <hyperlink ref="D202" r:id="rId7" xr:uid="{647B2D4D-9002-4184-801A-9D6C3B1D99D1}"/>
+    <hyperlink ref="D213" r:id="rId8" xr:uid="{87490F51-03B0-4DF8-93FE-E436CAC0AFF8}"/>
+    <hyperlink ref="D214" r:id="rId9" xr:uid="{10F84474-A501-472E-81F0-14764B346423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
+++ b/StatligaForvaltningsmyndigheter_arbete_pagar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LST\Documents\GitHub\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C0741-1731-45E6-84CB-5718ECDF0AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648A38FA-7F1B-4758-8807-6C8A265E82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="808">
   <si>
     <t>Namn</t>
   </si>
@@ -1651,42 +1651,12 @@
     <t>https://www.aklagare.se</t>
   </si>
   <si>
-    <t>https://www.arn.se/</t>
-  </si>
-  <si>
-    <t>http://www.vetansvar.se/</t>
-  </si>
-  <si>
-    <t>https://arbetsformedlingen.se/</t>
-  </si>
-  <si>
-    <t>https://www.arbetsgivarverket.se/</t>
-  </si>
-  <si>
-    <t>https://www.av.se/</t>
-  </si>
-  <si>
     <t>Arbetsmiljöverket</t>
   </si>
   <si>
-    <t>https://www.arvsfonden.se/</t>
-  </si>
-  <si>
     <t>Arvsfondsdelegationen</t>
   </si>
   <si>
-    <t>https://www.barnombudsmannen.se/</t>
-  </si>
-  <si>
-    <t>https://www.bth.se/</t>
-  </si>
-  <si>
-    <t>https://www.bfn.se/</t>
-  </si>
-  <si>
-    <t>https://bolagsverket.se/</t>
-  </si>
-  <si>
     <t>https://www.boverket.se/</t>
   </si>
   <si>
@@ -1714,9 +1684,6 @@
     <t>https://www.domstol.se</t>
   </si>
   <si>
-    <t>GrundURL</t>
-  </si>
-  <si>
     <t>https://www.kammarkollegiet.se</t>
   </si>
   <si>
@@ -1933,9 +1900,6 @@
     <t>https://www.lakemedelsverket.se/</t>
   </si>
   <si>
-    <t>https://www.lansstyrelsen.se/</t>
-  </si>
-  <si>
     <t>https://www.lantmateriet.se/</t>
   </si>
   <si>
@@ -2360,6 +2324,126 @@
   </si>
   <si>
     <t>https://www.vr.se/</t>
+  </si>
+  <si>
+    <t>Webbplats</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/vastra-gotaland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/dalarna</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/blekinge</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/gavleborg</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/gotland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/halland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/jamtland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/jonkoping</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/kalmar</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/kronoberg</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/norrbotten</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/orebro</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/ostergotland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/skane</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/sodermanland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/stockholm</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/uppsala</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/varmland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/vasterbotten</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/vasternorrland</t>
+  </si>
+  <si>
+    <t>https://www.lansstyrelsen.se/vastmanland</t>
+  </si>
+  <si>
+    <t>Utbildning</t>
+  </si>
+  <si>
+    <t>Försvar</t>
+  </si>
+  <si>
+    <t>Kategori-Relaterat med</t>
+  </si>
+  <si>
+    <t>Länsstyrelse</t>
+  </si>
+  <si>
+    <t>Energi</t>
+  </si>
+  <si>
+    <t>https://www.arn.se</t>
+  </si>
+  <si>
+    <t>http://www.vetansvar.se</t>
+  </si>
+  <si>
+    <t>https://arbetsformedlingen.se</t>
+  </si>
+  <si>
+    <t>https://www.arbetsgivarverket.se</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Körda</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>https://bolagsverket.se</t>
+  </si>
+  <si>
+    <t>https://www.bfn.se</t>
+  </si>
+  <si>
+    <t>https://www.bth.se</t>
+  </si>
+  <si>
+    <t>https://www.barnombudsmannen.se</t>
+  </si>
+  <si>
+    <t>https://www.arvsfonden.se</t>
+  </si>
+  <si>
+    <t>https://www.av.se</t>
   </si>
 </sst>
 </file>
@@ -2852,9 +2936,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3211,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3222,10 +3307,11 @@
     <col min="1" max="1" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="104.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3236,10 +3322,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="E1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3252,8 +3344,11 @@
       <c r="D2" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3264,10 +3359,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="F3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3277,11 +3375,14 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3291,11 +3392,14 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3305,11 +3409,14 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3319,13 +3426,16 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3333,13 +3443,13 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3347,11 +3457,11 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3361,11 +3471,11 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3375,11 +3485,14 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3389,11 +3502,11 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3403,11 +3516,14 @@
       <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F13" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3418,10 +3534,10 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3432,10 +3548,10 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3446,7 +3562,7 @@
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3590,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,7 +3618,7 @@
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3530,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3544,7 +3660,7 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3558,7 +3674,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,7 +3702,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,7 +3716,7 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,7 +3730,7 @@
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,7 +3758,7 @@
         <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,7 +3772,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,10 +3786,10 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -3684,10 +3800,10 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3698,10 +3814,10 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3712,10 +3828,10 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -3726,10 +3842,10 @@
         <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -3740,10 +3856,10 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -3754,10 +3870,10 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -3768,10 +3884,10 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -3782,10 +3898,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="E40" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -3796,10 +3915,13 @@
         <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="E41" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3810,10 +3932,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="E42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -3824,10 +3949,13 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="E43" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -3838,10 +3966,13 @@
         <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="E44" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -3852,10 +3983,10 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3866,10 +3997,10 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -3880,10 +4011,13 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="E47" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -3894,12 +4028,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
@@ -3908,10 +4042,13 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="E49" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -3922,10 +4059,10 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -3936,10 +4073,10 @@
         <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -3950,10 +4087,10 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>120</v>
       </c>
@@ -3964,10 +4101,13 @@
         <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="E53" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -3978,10 +4118,13 @@
         <v>125</v>
       </c>
       <c r="D54" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="E54" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3992,10 +4135,13 @@
         <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="E55" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -4006,10 +4152,13 @@
         <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="E56" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -4020,10 +4169,13 @@
         <v>134</v>
       </c>
       <c r="D57" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="E57" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -4034,10 +4186,13 @@
         <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="E58" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -4048,10 +4203,13 @@
         <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="E59" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -4062,12 +4220,12 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="B61" t="s">
         <v>143</v>
@@ -4076,10 +4234,10 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4090,10 +4248,10 @@
         <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>147</v>
       </c>
@@ -4104,10 +4262,10 @@
         <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -4118,7 +4276,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,7 +4304,7 @@
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,7 +4318,7 @@
         <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,7 +4332,7 @@
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,7 +4360,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,7 +4388,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,7 +4402,7 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,7 +4430,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,7 +4444,7 @@
         <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,7 +4458,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,10 +4500,10 @@
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -4356,10 +4514,10 @@
         <v>85</v>
       </c>
       <c r="D81" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -4370,10 +4528,10 @@
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>190</v>
       </c>
@@ -4384,10 +4542,10 @@
         <v>71</v>
       </c>
       <c r="D83" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -4398,10 +4556,10 @@
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -4412,10 +4570,10 @@
         <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>197</v>
       </c>
@@ -4426,10 +4584,10 @@
         <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>199</v>
       </c>
@@ -4440,10 +4598,10 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>201</v>
       </c>
@@ -4454,10 +4612,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E88" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -4468,10 +4629,13 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="E89" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -4482,10 +4646,10 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -4496,10 +4660,10 @@
         <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -4510,10 +4674,10 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>211</v>
       </c>
@@ -4524,10 +4688,10 @@
         <v>66</v>
       </c>
       <c r="D93" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -4538,10 +4702,13 @@
         <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="E94" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>215</v>
       </c>
@@ -4552,10 +4719,13 @@
         <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="E95" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -4566,10 +4736,13 @@
         <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+      <c r="E96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -4580,10 +4753,13 @@
         <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="E97" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>222</v>
       </c>
@@ -4594,10 +4770,13 @@
         <v>131</v>
       </c>
       <c r="D98" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="E98" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -4608,10 +4787,13 @@
         <v>226</v>
       </c>
       <c r="D99" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+      <c r="E99" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>227</v>
       </c>
@@ -4622,10 +4804,13 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="E100" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>229</v>
       </c>
@@ -4635,11 +4820,14 @@
       <c r="C101" t="s">
         <v>53</v>
       </c>
-      <c r="D101" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E101" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -4650,10 +4838,13 @@
         <v>233</v>
       </c>
       <c r="D102" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="E102" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -4664,10 +4855,13 @@
         <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+      <c r="E103" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>237</v>
       </c>
@@ -4677,11 +4871,14 @@
       <c r="C104" t="s">
         <v>239</v>
       </c>
-      <c r="D104" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E104" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>240</v>
       </c>
@@ -4692,10 +4889,13 @@
         <v>242</v>
       </c>
       <c r="D105" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="E105" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>243</v>
       </c>
@@ -4705,11 +4905,14 @@
       <c r="C106" t="s">
         <v>245</v>
       </c>
-      <c r="D106" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E106" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>246</v>
       </c>
@@ -4720,10 +4923,13 @@
         <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+      <c r="E107" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -4734,10 +4940,13 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="E108" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>251</v>
       </c>
@@ -4747,11 +4956,14 @@
       <c r="C109" t="s">
         <v>66</v>
       </c>
-      <c r="D109" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E109" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>253</v>
       </c>
@@ -4761,11 +4973,14 @@
       <c r="C110" t="s">
         <v>71</v>
       </c>
-      <c r="D110" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E110" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>255</v>
       </c>
@@ -4775,11 +4990,14 @@
       <c r="C111" t="s">
         <v>37</v>
       </c>
-      <c r="D111" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E111" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -4790,10 +5008,13 @@
         <v>259</v>
       </c>
       <c r="D112" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="E112" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>260</v>
       </c>
@@ -4804,10 +5025,13 @@
         <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+      <c r="E113" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>263</v>
       </c>
@@ -4818,10 +5042,13 @@
         <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+      <c r="E114" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>265</v>
       </c>
@@ -4832,10 +5059,10 @@
         <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>267</v>
       </c>
@@ -4846,10 +5073,13 @@
         <v>242</v>
       </c>
       <c r="D116" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="E116" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>269</v>
       </c>
@@ -4860,10 +5090,13 @@
         <v>233</v>
       </c>
       <c r="D117" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="E117" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>271</v>
       </c>
@@ -4874,10 +5107,10 @@
         <v>66</v>
       </c>
       <c r="D118" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>273</v>
       </c>
@@ -4888,10 +5121,13 @@
         <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="E119" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -4902,10 +5138,13 @@
         <v>278</v>
       </c>
       <c r="D120" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="E120" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>279</v>
       </c>
@@ -4916,10 +5155,13 @@
         <v>281</v>
       </c>
       <c r="D121" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="E121" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -4930,10 +5172,13 @@
         <v>284</v>
       </c>
       <c r="D122" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="E122" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>285</v>
       </c>
@@ -4944,10 +5189,13 @@
         <v>248</v>
       </c>
       <c r="D123" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="E123" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>287</v>
       </c>
@@ -4958,10 +5206,13 @@
         <v>236</v>
       </c>
       <c r="D124" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="E124" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -4972,10 +5223,13 @@
         <v>291</v>
       </c>
       <c r="D125" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="E125" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>292</v>
       </c>
@@ -4986,10 +5240,13 @@
         <v>262</v>
       </c>
       <c r="D126" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="E126" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>294</v>
       </c>
@@ -5000,10 +5257,13 @@
         <v>245</v>
       </c>
       <c r="D127" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="E127" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>296</v>
       </c>
@@ -5014,10 +5274,10 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>298</v>
       </c>
@@ -5028,10 +5288,10 @@
         <v>196</v>
       </c>
       <c r="D129" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -5042,10 +5302,10 @@
         <v>30</v>
       </c>
       <c r="D130" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>302</v>
       </c>
@@ -5056,10 +5316,10 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>304</v>
       </c>
@@ -5070,10 +5330,10 @@
         <v>128</v>
       </c>
       <c r="D132" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>306</v>
       </c>
@@ -5084,10 +5344,10 @@
         <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>308</v>
       </c>
@@ -5098,10 +5358,10 @@
         <v>30</v>
       </c>
       <c r="D134" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>310</v>
       </c>
@@ -5112,10 +5372,10 @@
         <v>312</v>
       </c>
       <c r="D135" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>313</v>
       </c>
@@ -5126,10 +5386,10 @@
         <v>109</v>
       </c>
       <c r="D136" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>315</v>
       </c>
@@ -5140,12 +5400,12 @@
         <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B138" t="s">
         <v>318</v>
@@ -5154,10 +5414,10 @@
         <v>71</v>
       </c>
       <c r="D138" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>319</v>
       </c>
@@ -5168,10 +5428,10 @@
         <v>321</v>
       </c>
       <c r="D139" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>322</v>
       </c>
@@ -5182,10 +5442,10 @@
         <v>245</v>
       </c>
       <c r="D140" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>324</v>
       </c>
@@ -5196,10 +5456,10 @@
         <v>226</v>
       </c>
       <c r="D141" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>326</v>
       </c>
@@ -5210,10 +5470,10 @@
         <v>233</v>
       </c>
       <c r="D142" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>328</v>
       </c>
@@ -5224,10 +5484,10 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>330</v>
       </c>
@@ -5238,10 +5498,13 @@
         <v>262</v>
       </c>
       <c r="D144" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="E144" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>332</v>
       </c>
@@ -5252,10 +5515,10 @@
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>334</v>
       </c>
@@ -5266,10 +5529,10 @@
         <v>66</v>
       </c>
       <c r="D146" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>336</v>
       </c>
@@ -5280,10 +5543,10 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>338</v>
       </c>
@@ -5294,10 +5557,10 @@
         <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>340</v>
       </c>
@@ -5308,10 +5571,10 @@
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>342</v>
       </c>
@@ -5322,10 +5585,10 @@
         <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>344</v>
       </c>
@@ -5336,10 +5599,10 @@
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>346</v>
       </c>
@@ -5350,10 +5613,10 @@
         <v>66</v>
       </c>
       <c r="D152" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>348</v>
       </c>
@@ -5364,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>350</v>
       </c>
@@ -5378,10 +5641,10 @@
         <v>5</v>
       </c>
       <c r="D154" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>352</v>
       </c>
@@ -5392,10 +5655,13 @@
         <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="E155" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>354</v>
       </c>
@@ -5406,10 +5672,10 @@
         <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>356</v>
       </c>
@@ -5420,10 +5686,10 @@
         <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>359</v>
       </c>
@@ -5434,10 +5700,10 @@
         <v>30</v>
       </c>
       <c r="D158" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>361</v>
       </c>
@@ -5448,10 +5714,10 @@
         <v>259</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>363</v>
       </c>
@@ -5462,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,7 +5742,7 @@
         <v>30</v>
       </c>
       <c r="D161" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,7 +5756,7 @@
         <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,7 +5770,7 @@
         <v>236</v>
       </c>
       <c r="D163" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,7 +5784,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,12 +5798,12 @@
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="B166" t="s">
         <v>375</v>
@@ -5546,7 +5812,7 @@
         <v>30</v>
       </c>
       <c r="D166" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5560,7 +5826,7 @@
         <v>30</v>
       </c>
       <c r="D167" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5602,7 +5868,7 @@
         <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,7 +5882,7 @@
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,7 +5896,7 @@
         <v>388</v>
       </c>
       <c r="D172" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,7 +5910,7 @@
         <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,7 +5924,7 @@
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,7 +5938,7 @@
         <v>19</v>
       </c>
       <c r="D175" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5686,10 +5952,10 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>397</v>
       </c>
@@ -5700,10 +5966,10 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>399</v>
       </c>
@@ -5714,10 +5980,13 @@
         <v>401</v>
       </c>
       <c r="D178" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="E178" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>402</v>
       </c>
@@ -5728,10 +5997,10 @@
         <v>157</v>
       </c>
       <c r="D179" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>404</v>
       </c>
@@ -5742,10 +6011,10 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>406</v>
       </c>
@@ -5756,10 +6025,10 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>408</v>
       </c>
@@ -5770,10 +6039,10 @@
         <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>410</v>
       </c>
@@ -5784,10 +6053,10 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>412</v>
       </c>
@@ -5798,10 +6067,10 @@
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>414</v>
       </c>
@@ -5812,10 +6081,10 @@
         <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>416</v>
       </c>
@@ -5826,10 +6095,10 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>418</v>
       </c>
@@ -5840,10 +6109,10 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>420</v>
       </c>
@@ -5854,10 +6123,13 @@
         <v>46</v>
       </c>
       <c r="D188" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="E188" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>422</v>
       </c>
@@ -5868,10 +6140,10 @@
         <v>259</v>
       </c>
       <c r="D189" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>424</v>
       </c>
@@ -5882,10 +6154,10 @@
         <v>426</v>
       </c>
       <c r="D190" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>427</v>
       </c>
@@ -5896,10 +6168,10 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>429</v>
       </c>
@@ -5910,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,12 +6196,12 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="B194" t="s">
         <v>433</v>
@@ -5938,7 +6210,7 @@
         <v>63</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,7 +6224,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,7 +6238,7 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,7 +6252,7 @@
         <v>242</v>
       </c>
       <c r="D197" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,7 +6266,7 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,12 +6280,12 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B200" t="s">
         <v>444</v>
@@ -6022,7 +6294,7 @@
         <v>445</v>
       </c>
       <c r="D200" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,12 +6308,12 @@
         <v>19</v>
       </c>
       <c r="D201" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B202" t="s">
         <v>448</v>
@@ -6050,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,12 +6336,12 @@
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B204" t="s">
         <v>451</v>
@@ -6078,7 +6350,7 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,7 +6364,7 @@
         <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,12 +6378,12 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="B207" t="s">
         <v>456</v>
@@ -6120,7 +6392,7 @@
         <v>109</v>
       </c>
       <c r="D207" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,10 +6406,10 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -6148,10 +6420,10 @@
         <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>461</v>
       </c>
@@ -6162,10 +6434,10 @@
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>463</v>
       </c>
@@ -6176,10 +6448,10 @@
         <v>128</v>
       </c>
       <c r="D211" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>465</v>
       </c>
@@ -6190,12 +6462,12 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="B213" t="s">
         <v>467</v>
@@ -6204,12 +6476,15 @@
         <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="E213" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="B214" t="s">
         <v>468</v>
@@ -6218,10 +6493,13 @@
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="E214" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>469</v>
       </c>
@@ -6232,10 +6510,10 @@
         <v>30</v>
       </c>
       <c r="D215" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>471</v>
       </c>
@@ -6246,10 +6524,10 @@
         <v>30</v>
       </c>
       <c r="D216" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>473</v>
       </c>
@@ -6260,10 +6538,10 @@
         <v>242</v>
       </c>
       <c r="D217" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>475</v>
       </c>
@@ -6274,10 +6552,10 @@
         <v>66</v>
       </c>
       <c r="D218" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>477</v>
       </c>
@@ -6288,10 +6566,10 @@
         <v>239</v>
       </c>
       <c r="D219" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>479</v>
       </c>
@@ -6302,10 +6580,10 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>481</v>
       </c>
@@ -6316,10 +6594,10 @@
         <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>483</v>
       </c>
@@ -6330,10 +6608,10 @@
         <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>485</v>
       </c>
@@ -6344,10 +6622,10 @@
         <v>487</v>
       </c>
       <c r="D223" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>488</v>
       </c>
@@ -6358,7 +6636,7 @@
         <v>125</v>
       </c>
       <c r="D224" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,7 +6650,7 @@
         <v>157</v>
       </c>
       <c r="D225" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6386,7 +6664,7 @@
         <v>128</v>
       </c>
       <c r="D226" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,7 +6678,7 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,7 +6692,7 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,7 +6720,7 @@
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,7 +6734,7 @@
         <v>66</v>
       </c>
       <c r="D231" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,7 +6748,7 @@
         <v>66</v>
       </c>
       <c r="D232" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,7 +6762,7 @@
         <v>196</v>
       </c>
       <c r="D233" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,7 +6776,7 @@
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6512,12 +6790,12 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B236" t="s">
         <v>512</v>
@@ -6526,12 +6804,12 @@
         <v>513</v>
       </c>
       <c r="D236" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="B237" t="s">
         <v>514</v>
@@ -6540,7 +6818,7 @@
         <v>71</v>
       </c>
       <c r="D237" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,7 +6832,7 @@
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6568,7 +6846,7 @@
         <v>519</v>
       </c>
       <c r="D239" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,10 +6860,10 @@
         <v>196</v>
       </c>
       <c r="D240" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>522</v>
       </c>
@@ -6596,10 +6874,10 @@
         <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>524</v>
       </c>
@@ -6610,10 +6888,13 @@
         <v>37</v>
       </c>
       <c r="D242" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="E242" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>526</v>
       </c>
@@ -6624,10 +6905,13 @@
         <v>19</v>
       </c>
       <c r="D243" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="E243" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>528</v>
       </c>
@@ -6638,10 +6922,10 @@
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>530</v>
       </c>
@@ -6652,10 +6936,10 @@
         <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>532</v>
       </c>
@@ -6666,10 +6950,13 @@
         <v>66</v>
       </c>
       <c r="D246" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+      <c r="E246" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>534</v>
       </c>
@@ -6680,10 +6967,10 @@
         <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>536</v>
       </c>
@@ -6694,10 +6981,10 @@
         <v>358</v>
       </c>
       <c r="D248" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>538</v>
       </c>
@@ -6708,10 +6995,10 @@
         <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>540</v>
       </c>
@@ -6722,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -6736,8 +7023,24 @@
     <hyperlink ref="D202" r:id="rId7" xr:uid="{647B2D4D-9002-4184-801A-9D6C3B1D99D1}"/>
     <hyperlink ref="D213" r:id="rId8" xr:uid="{87490F51-03B0-4DF8-93FE-E436CAC0AFF8}"/>
     <hyperlink ref="D214" r:id="rId9" xr:uid="{10F84474-A501-472E-81F0-14764B346423}"/>
+    <hyperlink ref="D101" r:id="rId10" xr:uid="{1A82A47F-EEDE-4E95-8278-CFBB5AB260E8}"/>
+    <hyperlink ref="D104" r:id="rId11" xr:uid="{32139539-052D-45F2-AEBD-C127F6998D2C}"/>
+    <hyperlink ref="D106" r:id="rId12" xr:uid="{1FAA748D-BB37-4C37-B6CC-FEE2D4C36A82}"/>
+    <hyperlink ref="D109" r:id="rId13" xr:uid="{0E0DB04E-4A6E-440D-B713-7D8654F15810}"/>
+    <hyperlink ref="D110" r:id="rId14" xr:uid="{C874D8A9-1A2A-4779-A3A7-27B11ED114B2}"/>
+    <hyperlink ref="D111" r:id="rId15" xr:uid="{7AEF72AB-E3EB-4580-8055-EB336E65F9D1}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{6CE05BB1-C809-41E3-8A7D-C068F8BCA9F3}"/>
+    <hyperlink ref="D5" r:id="rId17" xr:uid="{830CEC56-E8A0-489B-83A0-A5427D81C773}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{432F4151-3491-414A-B46C-9988440C99AA}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{D3E324B2-4E61-4744-ADCD-BCD2FB3703A7}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{E22411E5-94F4-4068-BFB0-37822F35BB3E}"/>
+    <hyperlink ref="D12" r:id="rId21" xr:uid="{B33A871D-17B0-40AE-A977-4A12FD871DAD}"/>
+    <hyperlink ref="D11" r:id="rId22" xr:uid="{D261737C-95F4-499A-ACF8-7CF5A323DBBE}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{A31259D4-3847-462C-9C91-3BF59767418B}"/>
+    <hyperlink ref="D9" r:id="rId24" xr:uid="{7ACF38A9-E3A0-4389-845A-40B92871FC35}"/>
+    <hyperlink ref="D8" r:id="rId25" xr:uid="{C63AF473-38EF-455F-8463-C483FBE11E9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>